--- a/documents/details_for_employee_portal.xlsx
+++ b/documents/details_for_employee_portal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gchar\OneDrive\Desktop\Misc\SwansonIndiaPortal\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FEDBFA-4FD7-49FE-8C5C-354756773557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72B056D-A064-4882-9A7D-85C9C2C12490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="252">
   <si>
     <t>emp_code</t>
   </si>
@@ -781,6 +781,15 @@
   </si>
   <si>
     <t>DeepakPC1601</t>
+  </si>
+  <si>
+    <t>SPI000A</t>
+  </si>
+  <si>
+    <t>Jit Singh</t>
+  </si>
+  <si>
+    <t>Jit-S2525</t>
   </si>
 </sst>
 </file>
@@ -802,18 +811,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -843,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -854,26 +857,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1189,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1204,15 +1202,15 @@
       <c r="D2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="3" t="str">
-        <f>LOWER(A2)&amp;"@swanson.co.in"</f>
+      <c r="E2" s="6" t="str">
+        <f t="shared" ref="E2:E33" si="0">LOWER(A2)&amp;"@swanson.co.in"</f>
         <v>spi0018@swanson.co.in</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1225,15 +1223,15 @@
       <c r="D3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="3" t="str">
-        <f>LOWER(A3)&amp;"@swanson.co.in"</f>
+      <c r="E3" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0034@swanson.co.in</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1246,15 +1244,15 @@
       <c r="D4" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="3" t="str">
-        <f>LOWER(A4)&amp;"@swanson.co.in"</f>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0035@swanson.co.in</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1267,15 +1265,15 @@
       <c r="D5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="3" t="str">
-        <f>LOWER(A5)&amp;"@swanson.co.in"</f>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0062@swanson.co.in</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1288,15 +1286,15 @@
       <c r="D6" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="3" t="str">
-        <f>LOWER(A6)&amp;"@swanson.co.in"</f>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0067@swanson.co.in</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1309,15 +1307,15 @@
       <c r="D7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="3" t="str">
-        <f>LOWER(A7)&amp;"@swanson.co.in"</f>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0080@swanson.co.in</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1330,15 +1328,15 @@
       <c r="D8" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="3" t="str">
-        <f>LOWER(A8)&amp;"@swanson.co.in"</f>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0084@swanson.co.in</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1351,36 +1349,36 @@
       <c r="D9" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="3" t="str">
-        <f>LOWER(A9)&amp;"@swanson.co.in"</f>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0092@swanson.co.in</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="9" t="str">
-        <f>LOWER(A10)&amp;"@swanson.co.in"</f>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0098@swanson.co.in</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1393,15 +1391,15 @@
       <c r="D11" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="3" t="str">
-        <f>LOWER(A11)&amp;"@swanson.co.in"</f>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0102@swanson.co.in</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1414,36 +1412,36 @@
       <c r="D12" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="3" t="str">
-        <f>LOWER(A12)&amp;"@swanson.co.in"</f>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0103@swanson.co.in</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="9" t="str">
-        <f>LOWER(A13)&amp;"@swanson.co.in"</f>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0108@swanson.co.in</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1456,15 +1454,15 @@
       <c r="D14" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="3" t="str">
-        <f>LOWER(A14)&amp;"@swanson.co.in"</f>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0114@swanson.co.in</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1477,15 +1475,15 @@
       <c r="D15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="3" t="str">
-        <f>LOWER(A15)&amp;"@swanson.co.in"</f>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0115@swanson.co.in</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -1498,15 +1496,15 @@
       <c r="D16" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="3" t="str">
-        <f>LOWER(A16)&amp;"@swanson.co.in"</f>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0121@swanson.co.in</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1519,15 +1517,15 @@
       <c r="D17" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="3" t="str">
-        <f>LOWER(A17)&amp;"@swanson.co.in"</f>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0122@swanson.co.in</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1540,15 +1538,15 @@
       <c r="D18" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E18" s="3" t="str">
-        <f>LOWER(A18)&amp;"@swanson.co.in"</f>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0129@swanson.co.in</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -1561,15 +1559,15 @@
       <c r="D19" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="3" t="str">
-        <f>LOWER(A19)&amp;"@swanson.co.in"</f>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0130@swanson.co.in</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>41</v>
       </c>
@@ -1582,57 +1580,57 @@
       <c r="D20" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="3" t="str">
-        <f>LOWER(A20)&amp;"@swanson.co.in"</f>
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0132@swanson.co.in</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="9" t="str">
-        <f>LOWER(A21)&amp;"@swanson.co.in"</f>
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0140@swanson.co.in</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="9" t="str">
-        <f>LOWER(A22)&amp;"@swanson.co.in"</f>
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0141@swanson.co.in</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -1645,15 +1643,15 @@
       <c r="D23" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="3" t="str">
-        <f>LOWER(A23)&amp;"@swanson.co.in"</f>
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0152@swanson.co.in</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
@@ -1666,15 +1664,15 @@
       <c r="D24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="3" t="str">
-        <f>LOWER(A24)&amp;"@swanson.co.in"</f>
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0153@swanson.co.in</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -1687,15 +1685,15 @@
       <c r="D25" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="3" t="str">
-        <f>LOWER(A25)&amp;"@swanson.co.in"</f>
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0154@swanson.co.in</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
@@ -1708,15 +1706,15 @@
       <c r="D26" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="3" t="str">
-        <f>LOWER(A26)&amp;"@swanson.co.in"</f>
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0162@swanson.co.in</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
@@ -1729,15 +1727,15 @@
       <c r="D27" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="3" t="str">
-        <f>LOWER(A27)&amp;"@swanson.co.in"</f>
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0164@swanson.co.in</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -1750,15 +1748,15 @@
       <c r="D28" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="3" t="str">
-        <f>LOWER(A28)&amp;"@swanson.co.in"</f>
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0166@swanson.co.in</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1771,15 +1769,15 @@
       <c r="D29" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="3" t="str">
-        <f>LOWER(A29)&amp;"@swanson.co.in"</f>
+      <c r="E29" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0167@swanson.co.in</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
@@ -1792,15 +1790,15 @@
       <c r="D30" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="3" t="str">
-        <f>LOWER(A30)&amp;"@swanson.co.in"</f>
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0176@swanson.co.in</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>63</v>
       </c>
@@ -1813,15 +1811,15 @@
       <c r="D31" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E31" s="3" t="str">
-        <f>LOWER(A31)&amp;"@swanson.co.in"</f>
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0177@swanson.co.in</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
@@ -1834,36 +1832,36 @@
       <c r="D32" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="3" t="str">
-        <f>LOWER(A32)&amp;"@swanson.co.in"</f>
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0178@swanson.co.in</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="9" t="str">
-        <f>LOWER(A33)&amp;"@swanson.co.in"</f>
+      <c r="E33" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>spi0179@swanson.co.in</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
@@ -1876,15 +1874,15 @@
       <c r="D34" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="3" t="str">
-        <f>LOWER(A34)&amp;"@swanson.co.in"</f>
+      <c r="E34" s="6" t="str">
+        <f t="shared" ref="E34:E60" si="1">LOWER(A34)&amp;"@swanson.co.in"</f>
         <v>spi0180@swanson.co.in</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
@@ -1897,15 +1895,15 @@
       <c r="D35" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="3" t="str">
-        <f>LOWER(A35)&amp;"@swanson.co.in"</f>
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0182@swanson.co.in</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>73</v>
       </c>
@@ -1918,15 +1916,15 @@
       <c r="D36" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="3" t="str">
-        <f>LOWER(A36)&amp;"@swanson.co.in"</f>
+      <c r="E36" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0183@swanson.co.in</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
@@ -1939,15 +1937,15 @@
       <c r="D37" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="3" t="str">
-        <f>LOWER(A37)&amp;"@swanson.co.in"</f>
+      <c r="E37" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0184@swanson.co.in</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
@@ -1960,15 +1958,15 @@
       <c r="D38" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="3" t="str">
-        <f>LOWER(A38)&amp;"@swanson.co.in"</f>
+      <c r="E38" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0185@swanson.co.in</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
@@ -1981,15 +1979,15 @@
       <c r="D39" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="3" t="str">
-        <f>LOWER(A39)&amp;"@swanson.co.in"</f>
+      <c r="E39" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0195@swanson.co.in</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>81</v>
       </c>
@@ -2002,15 +2000,15 @@
       <c r="D40" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="3" t="str">
-        <f>LOWER(A40)&amp;"@swanson.co.in"</f>
+      <c r="E40" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0200@swanson.co.in</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
@@ -2023,15 +2021,15 @@
       <c r="D41" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E41" s="3" t="str">
-        <f>LOWER(A41)&amp;"@swanson.co.in"</f>
+      <c r="E41" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0204@swanson.co.in</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
@@ -2044,15 +2042,15 @@
       <c r="D42" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="3" t="str">
-        <f>LOWER(A42)&amp;"@swanson.co.in"</f>
+      <c r="E42" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0205@swanson.co.in</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>87</v>
       </c>
@@ -2065,15 +2063,15 @@
       <c r="D43" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E43" s="3" t="str">
-        <f>LOWER(A43)&amp;"@swanson.co.in"</f>
+      <c r="E43" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0206@swanson.co.in</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
@@ -2086,15 +2084,15 @@
       <c r="D44" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E44" s="3" t="str">
-        <f>LOWER(A44)&amp;"@swanson.co.in"</f>
+      <c r="E44" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0207@swanson.co.in</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>91</v>
       </c>
@@ -2107,15 +2105,15 @@
       <c r="D45" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E45" s="3" t="str">
-        <f>LOWER(A45)&amp;"@swanson.co.in"</f>
+      <c r="E45" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0208@swanson.co.in</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
@@ -2128,15 +2126,15 @@
       <c r="D46" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E46" s="3" t="str">
-        <f>LOWER(A46)&amp;"@swanson.co.in"</f>
+      <c r="E46" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0209@swanson.co.in</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>95</v>
       </c>
@@ -2149,15 +2147,15 @@
       <c r="D47" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E47" s="3" t="str">
-        <f>LOWER(A47)&amp;"@swanson.co.in"</f>
+      <c r="E47" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0210@swanson.co.in</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
@@ -2170,15 +2168,15 @@
       <c r="D48" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E48" s="3" t="str">
-        <f>LOWER(A48)&amp;"@swanson.co.in"</f>
+      <c r="E48" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0211@swanson.co.in</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -2191,15 +2189,15 @@
       <c r="D49" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="3" t="str">
-        <f>LOWER(A49)&amp;"@swanson.co.in"</f>
+      <c r="E49" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0214@swanson.co.in</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
@@ -2212,15 +2210,15 @@
       <c r="D50" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E50" s="3" t="str">
-        <f>LOWER(A50)&amp;"@swanson.co.in"</f>
+      <c r="E50" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0215@swanson.co.in</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
@@ -2233,15 +2231,15 @@
       <c r="D51" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E51" s="3" t="str">
-        <f>LOWER(A51)&amp;"@swanson.co.in"</f>
+      <c r="E51" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0216@swanson.co.in</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
@@ -2254,36 +2252,36 @@
       <c r="D52" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E52" s="3" t="str">
-        <f>LOWER(A52)&amp;"@swanson.co.in"</f>
+      <c r="E52" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0217@swanson.co.in</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="9" t="str">
-        <f>LOWER(A53)&amp;"@swanson.co.in"</f>
+      <c r="E53" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0218@swanson.co.in</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>109</v>
       </c>
@@ -2296,15 +2294,15 @@
       <c r="D54" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="3" t="str">
-        <f>LOWER(A54)&amp;"@swanson.co.in"</f>
+      <c r="E54" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0219@swanson.co.in</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>111</v>
       </c>
@@ -2317,15 +2315,15 @@
       <c r="D55" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E55" s="3" t="str">
-        <f>LOWER(A55)&amp;"@swanson.co.in"</f>
+      <c r="E55" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0220@swanson.co.in</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>113</v>
       </c>
@@ -2338,15 +2336,15 @@
       <c r="D56" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E56" s="3" t="str">
-        <f>LOWER(A56)&amp;"@swanson.co.in"</f>
+      <c r="E56" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0221@swanson.co.in</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>115</v>
       </c>
@@ -2359,15 +2357,15 @@
       <c r="D57" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E57" s="3" t="str">
-        <f>LOWER(A57)&amp;"@swanson.co.in"</f>
+      <c r="E57" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0222@swanson.co.in</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>117</v>
       </c>
@@ -2380,15 +2378,15 @@
       <c r="D58" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="3" t="str">
-        <f>LOWER(A58)&amp;"@swanson.co.in"</f>
+      <c r="E58" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0224@swanson.co.in</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>119</v>
       </c>
@@ -2401,12 +2399,33 @@
       <c r="D59" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="3" t="str">
-        <f>LOWER(A59)&amp;"@swanson.co.in"</f>
+      <c r="E59" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>spi0225@swanson.co.in</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="7" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="9">
+        <v>45658</v>
+      </c>
+      <c r="E60" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>spi000a@swanson.co.in</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/documents/details_for_employee_portal.xlsx
+++ b/documents/details_for_employee_portal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gchar\OneDrive\Desktop\Misc\SwansonIndiaPortal\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72B056D-A064-4882-9A7D-85C9C2C12490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DB393D-5589-4553-A07A-868D38D38EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="255">
   <si>
     <t>emp_code</t>
   </si>
@@ -790,13 +793,22 @@
   </si>
   <si>
     <t>Jit-S2525</t>
+  </si>
+  <si>
+    <t>SPI000B</t>
+  </si>
+  <si>
+    <t>Suresh Yadav</t>
+  </si>
+  <si>
+    <t>Suresh-2501</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,6 +821,12 @@
       <color theme="1"/>
       <name val="VERDANA"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1153,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2446,29 @@
         <v>251</v>
       </c>
     </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="9">
+        <v>45658</v>
+      </c>
+      <c r="E61" s="6" t="str">
+        <f t="shared" ref="E61" si="2">LOWER(A61)&amp;"@swanson.co.in"</f>
+        <v>spi000b@swanson.co.in</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>